--- a/数据库文档.xlsx
+++ b/数据库文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="109">
   <si>
     <t>SQL Server</t>
   </si>
@@ -99,6 +99,24 @@
     <t>头像</t>
   </si>
   <si>
+    <t>ATTRIBUTE1</t>
+  </si>
+  <si>
+    <t>VARCAHR</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE2</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE3</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE4</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE5</t>
+  </si>
+  <si>
     <t>管理员表</t>
   </si>
   <si>
@@ -241,6 +259,90 @@
   </si>
   <si>
     <t>数量</t>
+  </si>
+  <si>
+    <t>订单表</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
+    <t>订单ID</t>
+  </si>
+  <si>
+    <t>ORDER_CODE</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>时间戳+用户ID</t>
+  </si>
+  <si>
+    <t>ADDRESS_ID</t>
+  </si>
+  <si>
+    <t>地址ID</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>0-已下单已支付，1-已下单未支付，2-取消订单，3-已发货，4-已送达，5-已签收</t>
+  </si>
+  <si>
+    <t>ORDER_TIME</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>RECEIVE TIME</t>
+  </si>
+  <si>
+    <t>签收时间</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>评价表</t>
+  </si>
+  <si>
+    <t>EVALUATION_ID</t>
+  </si>
+  <si>
+    <t>评价ID</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>评分</t>
+  </si>
+  <si>
+    <t>1-5分</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>评语</t>
+  </si>
+  <si>
+    <t>限制80个字</t>
   </si>
 </sst>
 </file>
@@ -249,11 +351,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,7 +365,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -278,6 +395,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -287,50 +411,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,9 +447,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,9 +486,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,7 +495,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,8 +514,39 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,8 +591,116 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -479,180 +711,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -730,7 +848,9 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
@@ -819,17 +939,76 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color theme="1"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,80 +1036,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -939,10 +1044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,196 +1056,220 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1490,656 +1619,1428 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="22.5" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" ht="22.5" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:7">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="21" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" ht="19.5" spans="1:7">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8" t="s">
+    <row r="6" ht="18.75" spans="1:7">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9" t="s">
+    <row r="7" ht="18.75" spans="1:7">
+      <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="16">
         <v>100</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="10" t="s">
+    <row r="8" ht="18.75" spans="1:7">
+      <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9" t="s">
+    <row r="9" ht="18.75" spans="1:7">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="10" t="s">
+    <row r="10" ht="18.75" spans="1:7">
+      <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="18">
         <v>100</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="11" t="s">
+    <row r="11" ht="18.75" spans="1:7">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="16">
         <v>255</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="19.5" spans="1:7">
-      <c r="A12" s="12" t="s">
+    <row r="12" ht="18.75" spans="1:7">
+      <c r="A12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:7">
+      <c r="C12" s="18">
+        <v>200</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" ht="18.75" spans="1:7">
       <c r="A13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="16">
+        <v>200</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" ht="18.75" spans="1:7">
+      <c r="A14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="18">
+        <v>200</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" ht="18.75" spans="1:7">
+      <c r="A15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="16">
+        <v>200</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" ht="19.5" spans="1:7">
+      <c r="A16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="20">
+        <v>200</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" ht="21" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" ht="19.5" spans="1:7">
+      <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G18" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="8" t="s">
+    <row r="19" ht="18.75" spans="1:7">
+      <c r="A19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="G19" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="1:7">
+      <c r="A20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C20" s="16">
         <v>100</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="10" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" spans="1:7">
+      <c r="A21" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="10">
-        <v>100</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="11">
-        <v>255</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" ht="19.5" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="17">
-        <v>200</v>
+      <c r="C21" s="18">
+        <v>100</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" spans="1:7">
+      <c r="A22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="18">
-        <v>50</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="C22" s="16">
+        <v>255</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" spans="1:7">
       <c r="A23" s="17" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="17">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="18">
+        <v>200</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="18">
-        <v>50</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" ht="18.75" spans="1:7">
+      <c r="A24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="16">
+        <v>200</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" ht="18.75" spans="1:7">
       <c r="A25" s="17" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="17">
-        <v>10</v>
-      </c>
-      <c r="D25" s="17">
-        <v>2</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C25" s="18">
+        <v>200</v>
+      </c>
+      <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="18">
-        <v>2</v>
-      </c>
-      <c r="D26" s="18">
-        <v>1</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" ht="18.75" spans="1:7">
+      <c r="A26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="16">
+        <v>200</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" ht="19.5" spans="1:7">
+      <c r="A27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="20">
+        <v>200</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" ht="21" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" ht="19.5" spans="1:7">
+      <c r="A29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" spans="1:7">
+      <c r="A30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" spans="1:7">
+      <c r="A31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="17">
-        <v>200</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="18">
-        <v>3</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="18" t="s">
+      <c r="C31" s="16">
+        <v>200</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" spans="1:7">
+      <c r="A32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="18">
         <v>50</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" spans="1:7">
+      <c r="A33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="16">
+        <v>50</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" spans="1:7">
+      <c r="A34" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="18">
+        <v>50</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" spans="1:7">
+      <c r="A35" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="16">
+        <v>10</v>
+      </c>
+      <c r="D35" s="15">
+        <v>2</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" spans="1:7">
+      <c r="A36" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2</v>
+      </c>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" spans="1:7">
+      <c r="A37" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="16">
+        <v>200</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" spans="1:7">
+      <c r="A38" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" spans="1:7">
+      <c r="A39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" spans="1:7">
+      <c r="A40" s="17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="17" t="s">
+      <c r="B40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="18">
+        <v>3</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17" t="s">
+    </row>
+    <row r="41" ht="18.75" spans="1:7">
+      <c r="A41" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="19" t="s">
+      <c r="B41" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="C41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" spans="1:7">
+      <c r="A42" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C42" s="18">
         <v>50</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" ht="19.5" spans="1:7">
-      <c r="A35" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="12" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="15" t="s">
+    </row>
+    <row r="43" ht="18.75" spans="1:7">
+      <c r="A43" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" spans="1:7">
+      <c r="A44" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="18">
+        <v>50</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" spans="1:7">
+      <c r="A45" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="16">
+        <v>200</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" ht="18.75" spans="1:7">
+      <c r="A46" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="18">
+        <v>200</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" ht="18.75" spans="1:7">
+      <c r="A47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="16">
+        <v>200</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" ht="18.75" spans="1:7">
+      <c r="A48" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="18">
+        <v>200</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" ht="19.5" spans="1:7">
+      <c r="A49" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="27">
+        <v>200</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" ht="21" spans="1:7">
+      <c r="A50" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" ht="19.5" spans="1:7">
+      <c r="A51" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C51" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F51" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G51" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="8" t="s">
+    <row r="52" ht="18.75" spans="1:7">
+      <c r="A52" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
+      <c r="C52" s="14"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="9" t="s">
+      <c r="G52" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" ht="18.75" spans="1:7">
+      <c r="A53" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B53" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
+      <c r="C53" s="16"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="10" t="s">
+    <row r="54" ht="18.75" spans="1:7">
+      <c r="A54" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="C54" s="18"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" spans="1:7">
+      <c r="A55" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" spans="1:7">
+      <c r="A56" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="18">
+        <v>200</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" ht="18.75" spans="1:7">
+      <c r="A57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="16">
+        <v>200</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+    </row>
+    <row r="58" ht="18.75" spans="1:7">
+      <c r="A58" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="18">
+        <v>200</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" ht="18.75" spans="1:7">
+      <c r="A59" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="16">
+        <v>200</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" ht="19.5" spans="1:7">
+      <c r="A60" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="20">
+        <v>200</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" ht="21" spans="1:7">
+      <c r="A61" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" ht="19.5" spans="1:7">
+      <c r="A62" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" ht="19.5" spans="1:7">
+      <c r="A63" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" ht="18.75" spans="1:8">
+      <c r="A64" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="14">
+        <v>255</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" ht="18.75" spans="1:7">
+      <c r="A65" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" ht="18.75" spans="1:7">
+      <c r="A66" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" ht="18.75" spans="1:7">
+      <c r="A67" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" ht="18.75" spans="1:7">
+      <c r="A68" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" ht="18.75" spans="1:8">
+      <c r="A69" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" ht="18.75" spans="1:7">
+      <c r="A70" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" ht="18.75" spans="1:7">
+      <c r="A71" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" ht="18.75" spans="1:7">
+      <c r="A72" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="18">
+        <v>100</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" spans="1:7">
+      <c r="A73" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="16">
+        <v>200</v>
+      </c>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+    </row>
+    <row r="74" ht="18.75" spans="1:7">
+      <c r="A74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="18">
+        <v>200</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" ht="18.75" spans="1:7">
+      <c r="A75" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="16">
+        <v>200</v>
+      </c>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+    </row>
+    <row r="76" ht="18.75" spans="1:7">
+      <c r="A76" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="18">
+        <v>200</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" ht="19.5" spans="1:7">
+      <c r="A77" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="27">
+        <v>200</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+    </row>
+    <row r="78" ht="21" spans="1:7">
+      <c r="A78" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="24"/>
+    </row>
+    <row r="79" ht="19.5" spans="1:7">
+      <c r="A79" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" ht="18.75" spans="1:7">
+      <c r="A80" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" ht="18.75" spans="1:7">
+      <c r="A81" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" ht="18.75" spans="1:7">
+      <c r="A82" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" ht="18.75" spans="1:8">
+      <c r="A83" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" ht="18.75" spans="1:8">
+      <c r="A84" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="18">
+        <v>255</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" ht="18.75" spans="1:7">
+      <c r="A85" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="16">
+        <v>200</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+    </row>
+    <row r="86" ht="18.75" spans="1:7">
+      <c r="A86" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="18">
+        <v>200</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+    </row>
+    <row r="87" ht="18.75" spans="1:7">
+      <c r="A87" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="16">
+        <v>200</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" ht="18.75" spans="1:7">
+      <c r="A88" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="18">
+        <v>200</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" ht="19.5" spans="1:7">
+      <c r="A89" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="27">
+        <v>200</v>
+      </c>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库文档.xlsx
+++ b/数据库文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="118">
   <si>
     <t>SQL Server</t>
   </si>
@@ -343,6 +343,33 @@
   </si>
   <si>
     <t>限制80个字</t>
+  </si>
+  <si>
+    <t>地址表</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>RECEIVING NAME</t>
+  </si>
+  <si>
+    <t>收货人</t>
+  </si>
+  <si>
+    <t>RECEIVING PHONE</t>
+  </si>
+  <si>
+    <t>收货电话</t>
+  </si>
+  <si>
+    <t>POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>邮编</t>
+  </si>
+  <si>
+    <t>地址</t>
   </si>
 </sst>
 </file>
@@ -350,10 +377,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -416,100 +443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,8 +481,99 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,181 +618,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor theme="0" tint="-0.149998474074526"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,54 +974,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1036,6 +1021,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1044,149 +1077,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,6 +1302,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,10 +1676,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3041,6 +3098,213 @@
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
+    </row>
+    <row r="90" ht="21" spans="1:7">
+      <c r="A90" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="22"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="24"/>
+    </row>
+    <row r="91" ht="19.5" spans="1:7">
+      <c r="A91" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" ht="18.75" spans="1:7">
+      <c r="A92" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" ht="18.75" spans="1:7">
+      <c r="A93" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="31"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" ht="18.75" spans="1:7">
+      <c r="A94" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="33">
+        <v>100</v>
+      </c>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" ht="18.75" spans="1:7">
+      <c r="A95" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="31"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" ht="18.75" spans="1:7">
+      <c r="A96" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="33"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" ht="18.75" spans="1:7">
+      <c r="A97" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="31">
+        <v>255</v>
+      </c>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" ht="18.75" spans="1:7">
+      <c r="A98" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="33">
+        <v>200</v>
+      </c>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+    </row>
+    <row r="99" ht="18.75" spans="1:7">
+      <c r="A99" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="31">
+        <v>200</v>
+      </c>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+    </row>
+    <row r="100" ht="18.75" spans="1:7">
+      <c r="A100" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="33">
+        <v>200</v>
+      </c>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+    </row>
+    <row r="101" ht="18.75" spans="1:7">
+      <c r="A101" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="31">
+        <v>200</v>
+      </c>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+    </row>
+    <row r="102" ht="19.5" spans="1:7">
+      <c r="A102" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="35">
+        <v>200</v>
+      </c>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库文档.xlsx
+++ b/数据库文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="124">
   <si>
     <t>SQL Server</t>
   </si>
@@ -351,13 +351,13 @@
     <t>ADDRESS</t>
   </si>
   <si>
-    <t>RECEIVING NAME</t>
+    <t>RECEIVING_NAME</t>
   </si>
   <si>
     <t>收货人</t>
   </si>
   <si>
-    <t>RECEIVING PHONE</t>
+    <t>RECEIVING_PHONE</t>
   </si>
   <si>
     <t>收货电话</t>
@@ -370,6 +370,24 @@
   </si>
   <si>
     <t>地址</t>
+  </si>
+  <si>
+    <t>类别表</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>CATEGORY_ID</t>
+  </si>
+  <si>
+    <t>类别ID</t>
+  </si>
+  <si>
+    <t>CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>类别名称</t>
   </si>
 </sst>
 </file>
@@ -377,10 +395,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -437,7 +455,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,16 +521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,14 +537,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -516,13 +547,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,23 +577,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -624,79 +642,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,97 +798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,6 +992,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1003,21 +1030,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,11 +1073,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,10 +1095,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,133 +1107,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,10 +1340,10 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1676,10 +1694,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3136,175 +3154,335 @@
       </c>
     </row>
     <row r="92" ht="18.75" spans="1:7">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28" t="s">
+      <c r="C92" s="14"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="28" t="s">
+      <c r="G92" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="93" ht="18.75" spans="1:7">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30" t="s">
+      <c r="C93" s="16"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="94" ht="18.75" spans="1:7">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="33">
+      <c r="C94" s="18">
         <v>100</v>
       </c>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32" t="s">
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:7">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30" t="s">
+      <c r="C95" s="16"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:7">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="B96" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32" t="s">
+      <c r="C96" s="18"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="97" ht="18.75" spans="1:7">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="31">
+      <c r="C97" s="16">
         <v>255</v>
       </c>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30" t="s">
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="98" ht="18.75" spans="1:7">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="33">
-        <v>200</v>
-      </c>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
+      <c r="B98" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="18">
+        <v>200</v>
+      </c>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
     </row>
     <row r="99" ht="18.75" spans="1:7">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B99" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="31">
-        <v>200</v>
-      </c>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
+      <c r="B99" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="16">
+        <v>200</v>
+      </c>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100" ht="18.75" spans="1:7">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B100" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C100" s="33">
-        <v>200</v>
-      </c>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
+      <c r="B100" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="18">
+        <v>200</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
     </row>
     <row r="101" ht="18.75" spans="1:7">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="31">
-        <v>200</v>
-      </c>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
+      <c r="B101" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="16">
+        <v>200</v>
+      </c>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
     </row>
     <row r="102" ht="19.5" spans="1:7">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="35">
-        <v>200</v>
-      </c>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
+      <c r="B102" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="20">
+        <v>200</v>
+      </c>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+    </row>
+    <row r="103" ht="21" spans="1:7">
+      <c r="A103" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="22"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="24"/>
+    </row>
+    <row r="104" ht="19.5" spans="1:7">
+      <c r="A104" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" ht="18.75" spans="1:7">
+      <c r="A105" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" ht="18.75" spans="1:7">
+      <c r="A106" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="31">
+        <v>100</v>
+      </c>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" ht="18.75" spans="1:7">
+      <c r="A107" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="33"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" ht="18.75" spans="1:7">
+      <c r="A108" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="31">
+        <v>200</v>
+      </c>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+    </row>
+    <row r="109" ht="18.75" spans="1:7">
+      <c r="A109" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="33">
+        <v>200</v>
+      </c>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+    </row>
+    <row r="110" ht="18.75" spans="1:7">
+      <c r="A110" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="31">
+        <v>200</v>
+      </c>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+    </row>
+    <row r="111" ht="18.75" spans="1:7">
+      <c r="A111" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="33">
+        <v>200</v>
+      </c>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+    </row>
+    <row r="112" ht="19.5" spans="1:7">
+      <c r="A112" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="35">
+        <v>200</v>
+      </c>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库文档.xlsx
+++ b/数据库文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="146">
   <si>
     <t>SQL Server</t>
   </si>
@@ -30,7 +30,7 @@
     <t>用户表</t>
   </si>
   <si>
-    <t>USER</t>
+    <t>USER_BS</t>
   </si>
   <si>
     <t>字段名</t>
@@ -372,10 +372,10 @@
     <t>地址</t>
   </si>
   <si>
-    <t>类别表</t>
-  </si>
-  <si>
-    <t>CATEGORY</t>
+    <t>类别字典表</t>
+  </si>
+  <si>
+    <t>CATEGORY_DICT</t>
   </si>
   <si>
     <t>CATEGORY_ID</t>
@@ -388,6 +388,72 @@
   </si>
   <si>
     <t>类别名称</t>
+  </si>
+  <si>
+    <t>书本分类表</t>
+  </si>
+  <si>
+    <t>BOOK_CATEGORY</t>
+  </si>
+  <si>
+    <t>公告表</t>
+  </si>
+  <si>
+    <t>NOTICE</t>
+  </si>
+  <si>
+    <t>NOTICE_ID</t>
+  </si>
+  <si>
+    <t>公告ID</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>公告书本信息表</t>
+  </si>
+  <si>
+    <t>NOTICE_BOOK</t>
+  </si>
+  <si>
+    <t>省份表</t>
+  </si>
+  <si>
+    <t>PROVINCE</t>
+  </si>
+  <si>
+    <t>PROVINCE_ID</t>
+  </si>
+  <si>
+    <t>省ID</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>市表</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>CITY_ID</t>
+  </si>
+  <si>
+    <t>市ID</t>
+  </si>
+  <si>
+    <t>市</t>
   </si>
 </sst>
 </file>
@@ -395,12 +461,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +513,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,29 +558,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,7 +574,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,40 +640,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,23 +671,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,13 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor theme="1" tint="0.249977111117893"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="1" tint="0.449995422223579"/>
+        <bgColor theme="1" tint="0.449995422223579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,19 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,6 +771,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -696,19 +789,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,13 +831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,13 +855,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,66 +903,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -993,20 +1080,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="medium">
+        <color theme="0"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1028,8 +1113,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,22 +1173,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,145 +1200,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,28 +1427,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1694,18 +1799,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="52.75" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
     <col min="8" max="8" width="70" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2538,7 +2643,9 @@
       <c r="C53" s="16"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
+      <c r="F53" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G53" s="15" t="s">
         <v>15</v>
       </c>
@@ -2553,7 +2660,9 @@
       <c r="C54" s="18"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="F54" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="G54" s="17" t="s">
         <v>42</v>
       </c>
@@ -2684,37 +2793,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" ht="19.5" spans="1:7">
-      <c r="A63" s="11" t="s">
+    <row r="63" ht="18.75" spans="1:7">
+      <c r="A63" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
+      <c r="C63" s="14"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="64" ht="18.75" spans="1:8">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="14">
+      <c r="B64" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="16">
         <v>255</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13" t="s">
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="15" t="s">
         <v>86</v>
       </c>
       <c r="H64" t="s">
@@ -2722,77 +2833,83 @@
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:7">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15" t="s">
+      <c r="C65" s="18"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:7">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17" t="s">
+      <c r="C66" s="16"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:7">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15" t="s">
+      <c r="C67" s="18"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:7">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17" t="s">
+      <c r="C68" s="16"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:8">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15" t="s">
+      <c r="C69" s="18"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17" t="s">
         <v>91</v>
       </c>
       <c r="H69" t="s">
@@ -2800,126 +2917,126 @@
       </c>
     </row>
     <row r="70" ht="18.75" spans="1:7">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17" t="s">
+      <c r="C70" s="16"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="71" ht="18.75" spans="1:7">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15" t="s">
+      <c r="C71" s="18"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:7">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="16">
         <v>100</v>
       </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17" t="s">
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:7">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="16">
-        <v>200</v>
-      </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
+      <c r="B73" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="18">
+        <v>200</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" ht="18.75" spans="1:7">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="18">
-        <v>200</v>
-      </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
+      <c r="B74" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="16">
+        <v>200</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" ht="18.75" spans="1:7">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="16">
-        <v>200</v>
-      </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
+      <c r="B75" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="18">
+        <v>200</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
     </row>
     <row r="76" ht="18.75" spans="1:7">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="18">
-        <v>200</v>
-      </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
+      <c r="B76" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="16">
+        <v>200</v>
+      </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" ht="19.5" spans="1:7">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="27">
-        <v>200</v>
-      </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
+      <c r="B77" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="20">
+        <v>200</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
     </row>
     <row r="78" ht="21" spans="1:7">
       <c r="A78" s="21" t="s">
@@ -3361,128 +3478,872 @@
       </c>
     </row>
     <row r="105" ht="18.75" spans="1:7">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28" t="s">
+      <c r="C105" s="14"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="28" t="s">
+      <c r="G105" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="106" ht="18.75" spans="1:7">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B106" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" s="31">
+      <c r="B106" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="16">
         <v>100</v>
       </c>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30" t="s">
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="107" ht="18.75" spans="1:7">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="18">
+        <v>200</v>
+      </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+    </row>
+    <row r="108" ht="18.75" spans="1:7">
+      <c r="A108" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="16">
+        <v>200</v>
+      </c>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+    </row>
+    <row r="109" ht="18.75" spans="1:7">
+      <c r="A109" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="18">
+        <v>200</v>
+      </c>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+    </row>
+    <row r="110" ht="18.75" spans="1:7">
+      <c r="A110" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="16">
+        <v>200</v>
+      </c>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" ht="19.5" spans="1:7">
+      <c r="A111" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="20">
+        <v>200</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+    </row>
+    <row r="112" ht="21" spans="1:7">
+      <c r="A112" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" s="22"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="24"/>
+    </row>
+    <row r="113" ht="19.5" spans="1:7">
+      <c r="A113" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" ht="18.75" spans="1:7">
+      <c r="A114" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" ht="18.75" spans="1:7">
+      <c r="A115" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B115" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="33"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32" t="s">
+      <c r="C115" s="16"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="108" ht="18.75" spans="1:7">
-      <c r="A108" s="30" t="s">
+    <row r="116" ht="18.75" spans="1:7">
+      <c r="A116" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B108" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108" s="31">
-        <v>200</v>
-      </c>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-    </row>
-    <row r="109" ht="18.75" spans="1:7">
-      <c r="A109" s="32" t="s">
+      <c r="B116" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="18">
+        <v>200</v>
+      </c>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+    </row>
+    <row r="117" ht="18.75" spans="1:7">
+      <c r="A117" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C109" s="33">
-        <v>200</v>
-      </c>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="32"/>
-      <c r="G109" s="32"/>
-    </row>
-    <row r="110" ht="18.75" spans="1:7">
-      <c r="A110" s="30" t="s">
+      <c r="B117" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="16">
+        <v>200</v>
+      </c>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+    </row>
+    <row r="118" ht="18.75" spans="1:7">
+      <c r="A118" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B110" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="31">
-        <v>200</v>
-      </c>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-    </row>
-    <row r="111" ht="18.75" spans="1:7">
-      <c r="A111" s="32" t="s">
+      <c r="B118" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="18">
+        <v>200</v>
+      </c>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+    </row>
+    <row r="119" ht="18.75" spans="1:7">
+      <c r="A119" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C111" s="33">
-        <v>200</v>
-      </c>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="32"/>
-    </row>
-    <row r="112" ht="19.5" spans="1:7">
-      <c r="A112" s="34" t="s">
+      <c r="B119" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="16">
+        <v>200</v>
+      </c>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+    </row>
+    <row r="120" ht="19.5" spans="1:7">
+      <c r="A120" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B112" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C112" s="35">
-        <v>200</v>
-      </c>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
+      <c r="B120" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="20">
+        <v>200</v>
+      </c>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+    </row>
+    <row r="121" ht="21" spans="1:7">
+      <c r="A121" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="22"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="24"/>
+    </row>
+    <row r="122" ht="19.5" spans="1:7">
+      <c r="A122" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" ht="18.75" spans="1:7">
+      <c r="A123" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" ht="18.75" spans="1:7">
+      <c r="A124" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="16">
+        <v>255</v>
+      </c>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" ht="18.75" spans="1:7">
+      <c r="A125" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" ht="18.75" spans="1:7">
+      <c r="A126" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="16">
+        <v>200</v>
+      </c>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+    </row>
+    <row r="127" ht="18.75" spans="1:7">
+      <c r="A127" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="18">
+        <v>200</v>
+      </c>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+    </row>
+    <row r="128" ht="18.75" spans="1:7">
+      <c r="A128" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="16">
+        <v>200</v>
+      </c>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+    </row>
+    <row r="129" ht="18.75" spans="1:7">
+      <c r="A129" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="18">
+        <v>200</v>
+      </c>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+    </row>
+    <row r="130" ht="19.5" spans="1:7">
+      <c r="A130" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="27">
+        <v>200</v>
+      </c>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+    </row>
+    <row r="131" ht="21" spans="1:7">
+      <c r="A131" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" s="22"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="24"/>
+    </row>
+    <row r="132" ht="19.5" spans="1:7">
+      <c r="A132" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" ht="18.75" spans="1:7">
+      <c r="A133" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" ht="18.75" spans="1:7">
+      <c r="A134" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="16"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" ht="18.75" spans="1:7">
+      <c r="A135" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="18">
+        <v>200</v>
+      </c>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+    </row>
+    <row r="136" ht="18.75" spans="1:7">
+      <c r="A136" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="16">
+        <v>200</v>
+      </c>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+    </row>
+    <row r="137" ht="18.75" spans="1:7">
+      <c r="A137" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" s="18">
+        <v>200</v>
+      </c>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+    </row>
+    <row r="138" ht="18.75" spans="1:7">
+      <c r="A138" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="16">
+        <v>200</v>
+      </c>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+    </row>
+    <row r="139" ht="19.5" spans="1:7">
+      <c r="A139" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="20">
+        <v>200</v>
+      </c>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+    </row>
+    <row r="140" ht="20.25" spans="1:7">
+      <c r="A140" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" s="22"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="24"/>
+    </row>
+    <row r="141" ht="14.25" spans="1:7">
+      <c r="A141" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="31"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="33">
+        <v>200</v>
+      </c>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" s="35">
+        <v>200</v>
+      </c>
+      <c r="D144" s="34"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="34"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" s="33">
+        <v>200</v>
+      </c>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="35">
+        <v>200</v>
+      </c>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="33">
+        <v>200</v>
+      </c>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" s="35">
+        <v>200</v>
+      </c>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+    </row>
+    <row r="149" ht="20.25" spans="1:7">
+      <c r="A149" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C149" s="22"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="24"/>
+    </row>
+    <row r="150" ht="14.25" spans="1:7">
+      <c r="A150" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="31"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" customFormat="1" spans="1:7">
+      <c r="A152" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="33"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153" s="35">
+        <v>200</v>
+      </c>
+      <c r="D153" s="34"/>
+      <c r="E153" s="34"/>
+      <c r="F153" s="34"/>
+      <c r="G153" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" s="33">
+        <v>200</v>
+      </c>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="32"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="35">
+        <v>200</v>
+      </c>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+      <c r="G155" s="34"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="33">
+        <v>200</v>
+      </c>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="35">
+        <v>200</v>
+      </c>
+      <c r="D157" s="34"/>
+      <c r="E157" s="34"/>
+      <c r="F157" s="34"/>
+      <c r="G157" s="34"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" s="33">
+        <v>200</v>
+      </c>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
